--- a/vyuha/others/mis/input_files/Last Mile Logistics Cost Tracker.xlsx
+++ b/vyuha/others/mis/input_files/Last Mile Logistics Cost Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascent\App\Maarg\vyuha\others\mis\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DDE372D-02FD-43E3-A766-65DB9A6C5FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361267D-28B3-4C21-A270-413C7737F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{8E86AF5B-549C-4CA3-9FF8-9EDCF7B528C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="7" xr2:uid="{8E86AF5B-549C-4CA3-9FF8-9EDCF7B528C7}"/>
   </bookViews>
   <sheets>
     <sheet name="April 22" sheetId="25" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="July 22" sheetId="32" r:id="rId4"/>
     <sheet name="August 22" sheetId="33" r:id="rId5"/>
     <sheet name="September 22" sheetId="34" r:id="rId6"/>
+    <sheet name="October 22" sheetId="35" r:id="rId7"/>
+    <sheet name="November 22" sheetId="36" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -584,8 +586,106 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Viren Shah</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{EA1DD2E9-D97A-4E1D-A54D-22DCE4A934A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Viren Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Last mile : 658607
+Mid mile : 65250*2
+Supervisor : 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS11" authorId="0" shapeId="0" xr:uid="{8D33813C-88AF-4013-A2DE-66CE15549CE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Viren Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rs 20 : &lt; 25 orders
+Rs 18 : &gt;26&lt;40
+Rs 15 : &gt;41</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Viren Shah</author>
+  </authors>
+  <commentList>
+    <comment ref="AT11" authorId="0" shapeId="0" xr:uid="{6B792383-0CF2-4340-9925-A4432031CCE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Viren Shah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rs 20 : &lt; 25 orders
+Rs 18 : &gt;26&lt;40
+Rs 15 : &gt;41</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="81">
   <si>
     <t>Logistics</t>
   </si>
@@ -817,6 +917,18 @@
   <si>
     <t>417900+214635</t>
   </si>
+  <si>
+    <t>Jagatsinghpur</t>
+  </si>
+  <si>
+    <t>Kharagpur</t>
+  </si>
+  <si>
+    <t>Jhansi</t>
+  </si>
+  <si>
+    <t>Vijayawada</t>
+  </si>
 </sst>
 </file>
 
@@ -918,7 +1030,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -989,6 +1101,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1082,7 +1207,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1164,6 +1289,24 @@
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12945,8 +13088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45CFB87-AFCA-4A2C-ACCA-62730CC811F9}">
   <dimension ref="A1:BG22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16343,8 +16486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50A1284-26D8-42E7-851D-2706F4D7BD5B}">
   <dimension ref="A1:BH22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:BH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19672,4 +19815,6611 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F873E5C-F384-4ED0-92DA-7D573770BF56}">
+  <dimension ref="A1:BL31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="7" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8533</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9066</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9867</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7000</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7500</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f>19225/2</f>
+        <v>9612.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>9937</v>
+      </c>
+      <c r="M4" s="2">
+        <v>9557</v>
+      </c>
+      <c r="N4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4530</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>9000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>10500</v>
+      </c>
+      <c r="T4" s="2">
+        <v>32915</v>
+      </c>
+      <c r="U4" s="2">
+        <v>10200</v>
+      </c>
+      <c r="V4" s="2">
+        <v>25726</v>
+      </c>
+      <c r="W4" s="2">
+        <v>10500</v>
+      </c>
+      <c r="X4" s="2">
+        <v>19800</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>19500</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>20333</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>20266</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>30202</v>
+      </c>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>7233</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>7733</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>10396</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>8267</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>8267</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>8000</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>594600</v>
+      </c>
+      <c r="C5" s="2">
+        <v>188316</v>
+      </c>
+      <c r="D5" s="2">
+        <v>62333</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>279800</v>
+      </c>
+      <c r="G5" s="2">
+        <v>108733</v>
+      </c>
+      <c r="H5" s="2">
+        <v>176374</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>186500</v>
+      </c>
+      <c r="L5" s="2">
+        <v>160000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>139500</v>
+      </c>
+      <c r="N5" s="2">
+        <v>226560</v>
+      </c>
+      <c r="O5" s="2">
+        <v>45300</v>
+      </c>
+      <c r="P5" s="2">
+        <v>184166</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>181167</v>
+      </c>
+      <c r="R5" s="2">
+        <v>154500</v>
+      </c>
+      <c r="S5" s="2">
+        <v>550615</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1634334</v>
+      </c>
+      <c r="U5" s="2">
+        <v>342864</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1242607</v>
+      </c>
+      <c r="W5" s="2">
+        <v>384166</v>
+      </c>
+      <c r="X5" s="2">
+        <v>399951</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1095629</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>628833</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>134582</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>41167</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>36551</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>15845</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>632000</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>58000</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>92202</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>163789</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>592962</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>959500</v>
+      </c>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2">
+        <v>61000</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>53000</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>10933</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>103926</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>189417</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>115000</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>131300</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>114700</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>45333</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>155200</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>103000</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>119500</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>79467</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>60682</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>24267</v>
+      </c>
+      <c r="T6" s="2">
+        <v>107917</v>
+      </c>
+      <c r="U6" s="2">
+        <v>10600</v>
+      </c>
+      <c r="V6" s="2">
+        <v>51334</v>
+      </c>
+      <c r="W6" s="2">
+        <v>59000</v>
+      </c>
+      <c r="X6" s="2">
+        <v>90584</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>72000</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1377133</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>180000</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>210986</v>
+      </c>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="33">
+        <f>SUM(B4:B6)</f>
+        <v>667782</v>
+      </c>
+      <c r="C7" s="33">
+        <f t="shared" ref="C7:BI7" si="0">SUM(C4:C6)</f>
+        <v>196849</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" si="0"/>
+        <v>71399</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="0"/>
+        <v>289667</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="0"/>
+        <v>115733</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="0"/>
+        <v>183874</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="0"/>
+        <v>196112.5</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="0"/>
+        <v>169937</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="0"/>
+        <v>149057</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="0"/>
+        <v>234560</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" si="0"/>
+        <v>49830</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" si="0"/>
+        <v>192166</v>
+      </c>
+      <c r="Q7" s="33">
+        <f t="shared" si="0"/>
+        <v>189167</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" si="0"/>
+        <v>163500</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" si="0"/>
+        <v>585382</v>
+      </c>
+      <c r="T7" s="33">
+        <f t="shared" si="0"/>
+        <v>1775166</v>
+      </c>
+      <c r="U7" s="33">
+        <f t="shared" si="0"/>
+        <v>363664</v>
+      </c>
+      <c r="V7" s="33">
+        <f t="shared" si="0"/>
+        <v>1319667</v>
+      </c>
+      <c r="W7" s="33">
+        <f t="shared" si="0"/>
+        <v>453666</v>
+      </c>
+      <c r="X7" s="33">
+        <f t="shared" si="0"/>
+        <v>510335</v>
+      </c>
+      <c r="Y7" s="33">
+        <f t="shared" si="0"/>
+        <v>1115129</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" si="0"/>
+        <v>721166</v>
+      </c>
+      <c r="AA7" s="33">
+        <f t="shared" si="0"/>
+        <v>134582</v>
+      </c>
+      <c r="AB7" s="33">
+        <f t="shared" si="0"/>
+        <v>41167</v>
+      </c>
+      <c r="AC7" s="33">
+        <f t="shared" si="0"/>
+        <v>36551</v>
+      </c>
+      <c r="AD7" s="33">
+        <f t="shared" si="0"/>
+        <v>15845</v>
+      </c>
+      <c r="AE7" s="33">
+        <f t="shared" si="0"/>
+        <v>2029399</v>
+      </c>
+      <c r="AF7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="33">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" si="0"/>
+        <v>92202</v>
+      </c>
+      <c r="AI7" s="33">
+        <f t="shared" si="0"/>
+        <v>163789</v>
+      </c>
+      <c r="AJ7" s="33">
+        <f t="shared" si="0"/>
+        <v>772962</v>
+      </c>
+      <c r="AK7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="33">
+        <f t="shared" si="0"/>
+        <v>1200688</v>
+      </c>
+      <c r="AT7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="33">
+        <f t="shared" si="0"/>
+        <v>61000</v>
+      </c>
+      <c r="AV7" s="33">
+        <f t="shared" si="0"/>
+        <v>53000</v>
+      </c>
+      <c r="AW7" s="33">
+        <f t="shared" si="0"/>
+        <v>10933</v>
+      </c>
+      <c r="AX7" s="33">
+        <f t="shared" si="0"/>
+        <v>111159</v>
+      </c>
+      <c r="AY7" s="33">
+        <f t="shared" si="0"/>
+        <v>197150</v>
+      </c>
+      <c r="AZ7" s="33">
+        <f t="shared" si="0"/>
+        <v>125396</v>
+      </c>
+      <c r="BA7" s="33">
+        <f t="shared" si="0"/>
+        <v>139300</v>
+      </c>
+      <c r="BB7" s="33">
+        <f t="shared" si="0"/>
+        <v>122967</v>
+      </c>
+      <c r="BC7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD7" s="33">
+        <f t="shared" si="0"/>
+        <v>45333</v>
+      </c>
+      <c r="BE7" s="33">
+        <f t="shared" si="0"/>
+        <v>163467</v>
+      </c>
+      <c r="BF7" s="33">
+        <f t="shared" si="0"/>
+        <v>111000</v>
+      </c>
+      <c r="BG7" s="33">
+        <f t="shared" si="0"/>
+        <v>127500</v>
+      </c>
+      <c r="BH7" s="33">
+        <f t="shared" si="0"/>
+        <v>79467</v>
+      </c>
+      <c r="BI7" s="33">
+        <f t="shared" si="0"/>
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6968</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>7500</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="R10" s="2">
+        <v>8500</v>
+      </c>
+      <c r="S10" s="2">
+        <v>10452</v>
+      </c>
+      <c r="T10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="U10" s="2">
+        <v>2500</v>
+      </c>
+      <c r="V10" s="2">
+        <v>13000</v>
+      </c>
+      <c r="W10" s="2">
+        <v>10452</v>
+      </c>
+      <c r="X10" s="2">
+        <v>10452</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>7000</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>8500</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>11782</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>7742</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>4645</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="L11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="M11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>17500</v>
+      </c>
+      <c r="O11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="P11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>21000</v>
+      </c>
+      <c r="R11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>21000</v>
+      </c>
+      <c r="T11" s="2">
+        <v>21000</v>
+      </c>
+      <c r="U11" s="2">
+        <v>22000</v>
+      </c>
+      <c r="V11" s="2">
+        <v>17500</v>
+      </c>
+      <c r="W11" s="2">
+        <v>22000</v>
+      </c>
+      <c r="X11" s="2">
+        <v>22000</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>21000</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>12600</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>7250</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>6500</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>6500</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>14500</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>12200</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>18200</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>12000</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>14000</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>12500</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>16500</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>41226</v>
+      </c>
+      <c r="T12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="U12" s="2">
+        <v>48000</v>
+      </c>
+      <c r="V12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="W12" s="2">
+        <v>19603</v>
+      </c>
+      <c r="X12" s="2">
+        <v>20600</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>51600</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>56000</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>46200</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4">
+        <f>IFERROR(B4/B10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:BI17" si="1">IFERROR(C4/C10,0)</f>
+        <v>1.1377333333333333</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1332500000000001</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.416044776119403</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0680555555555555</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.104111111111111</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0618888888888889</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0045924225028702</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2915000000000001</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="1"/>
+        <v>4.08</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.978923076923077</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0045924225028702</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.894374282433984</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.95</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0333000000000001</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0266000000000002</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0202</v>
+      </c>
+      <c r="AT15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0332857142857144</v>
+      </c>
+      <c r="AY15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90976470588235292</v>
+      </c>
+      <c r="AZ15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.88236292649804782</v>
+      </c>
+      <c r="BA15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BB15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0333749999999999</v>
+      </c>
+      <c r="BC15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0678119349005426</v>
+      </c>
+      <c r="BF15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7222820236813778</v>
+      </c>
+      <c r="BG15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" ref="B16:BH17" si="2">IFERROR(B5/B11,0)</f>
+        <v>33.033333333333331</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="2"/>
+        <v>10.462</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6666363636363632</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>13.648780487804878</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0150322580645161</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>11.023375</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="2"/>
+        <v>12.433333333333334</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="2"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="2"/>
+        <v>12.946285714285715</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6624999999999996</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="2"/>
+        <v>10.231444444444444</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6270000000000007</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="2"/>
+        <v>9.65625</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="2"/>
+        <v>26.219761904761906</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="2"/>
+        <v>77.825428571428574</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="2"/>
+        <v>15.584727272727273</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="2"/>
+        <v>71.00611428571429</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="2"/>
+        <v>17.462090909090907</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="2"/>
+        <v>18.179590909090908</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="2"/>
+        <v>52.172809523809526</v>
+      </c>
+      <c r="Z16" s="4">
+        <f t="shared" si="2"/>
+        <v>31.441649999999999</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="2"/>
+        <v>10.681111111111111</v>
+      </c>
+      <c r="AB16" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6782068965517238</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6232307692307693</v>
+      </c>
+      <c r="AD16" s="4">
+        <f t="shared" si="2"/>
+        <v>3.169</v>
+      </c>
+      <c r="AE16" s="4">
+        <f t="shared" si="2"/>
+        <v>31.6</v>
+      </c>
+      <c r="AF16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AH16" s="4">
+        <f t="shared" si="2"/>
+        <v>9.2202000000000002</v>
+      </c>
+      <c r="AI16" s="4">
+        <f t="shared" si="2"/>
+        <v>13.42532786885246</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f t="shared" si="2"/>
+        <v>32.580329670329668</v>
+      </c>
+      <c r="AK16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="4">
+        <f t="shared" si="2"/>
+        <v>47.975000000000001</v>
+      </c>
+      <c r="AT16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="4">
+        <f t="shared" si="2"/>
+        <v>5.083333333333333</v>
+      </c>
+      <c r="AV16" s="4">
+        <f t="shared" si="2"/>
+        <v>6.625</v>
+      </c>
+      <c r="AW16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.366625</v>
+      </c>
+      <c r="AX16" s="4">
+        <f t="shared" si="2"/>
+        <v>7.423285714285714</v>
+      </c>
+      <c r="AY16" s="4">
+        <f t="shared" si="2"/>
+        <v>10.523166666666667</v>
+      </c>
+      <c r="AZ16" s="4">
+        <f t="shared" si="2"/>
+        <v>7.1875</v>
+      </c>
+      <c r="BA16" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2944444444444443</v>
+      </c>
+      <c r="BB16" s="4">
+        <f t="shared" si="2"/>
+        <v>7.1687500000000002</v>
+      </c>
+      <c r="BC16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0222000000000002</v>
+      </c>
+      <c r="BE16" s="4">
+        <f t="shared" si="2"/>
+        <v>8.6222222222222218</v>
+      </c>
+      <c r="BF16" s="4">
+        <f t="shared" si="2"/>
+        <v>6.2424242424242422</v>
+      </c>
+      <c r="BG16" s="4">
+        <f t="shared" si="2"/>
+        <v>6.6388888888888893</v>
+      </c>
+      <c r="BH16" s="4">
+        <f t="shared" si="2"/>
+        <v>4.9666874999999999</v>
+      </c>
+      <c r="BI16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.46875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.58863338669771503</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4965416666666664</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1389166666666668</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0097434066214355</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3972815533980585</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.44</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f t="shared" si="2"/>
+        <v>24.591660714285716</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8961038961038961</v>
+      </c>
+      <c r="AK17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="4">
+        <f t="shared" si="2"/>
+        <v>5.2746500000000003</v>
+      </c>
+      <c r="AT17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BI17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>2</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>7</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>13</v>
+      </c>
+      <c r="L21" s="2">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2">
+        <v>10</v>
+      </c>
+      <c r="N21" s="2">
+        <v>13</v>
+      </c>
+      <c r="O21" s="2">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>10</v>
+      </c>
+      <c r="R21" s="2">
+        <v>9</v>
+      </c>
+      <c r="S21" s="2">
+        <v>26</v>
+      </c>
+      <c r="T21" s="2">
+        <v>62</v>
+      </c>
+      <c r="U21" s="2">
+        <v>15</v>
+      </c>
+      <c r="V21" s="2">
+        <v>62</v>
+      </c>
+      <c r="W21" s="2">
+        <v>15</v>
+      </c>
+      <c r="X21" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>52</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>32</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>24</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>13</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>11</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2">
+        <v>7</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2">
+        <v>45</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AV21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>7</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>6</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>7</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>6</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>7</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>4</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>26</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>7</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D118DF-4D35-4779-B488-6D9FD8AD22E1}">
+  <dimension ref="A1:BL31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR1" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL1" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34">
+        <v>12580.800000000001</v>
+      </c>
+      <c r="C4" s="34">
+        <v>8206.4520000000011</v>
+      </c>
+      <c r="D4" s="34">
+        <v>4025.808</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
+        <v>8980.6440000000002</v>
+      </c>
+      <c r="G4" s="34">
+        <v>7587.0959999999995</v>
+      </c>
+      <c r="H4" s="34">
+        <v>3483.8759999999997</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="34">
+        <v>9070.14</v>
+      </c>
+      <c r="L4" s="34">
+        <v>9678.5399999999991</v>
+      </c>
+      <c r="M4" s="34">
+        <v>9017.3040000000001</v>
+      </c>
+      <c r="N4" s="34">
+        <v>0</v>
+      </c>
+      <c r="O4" s="34">
+        <v>7897.2000000000007</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="34">
+        <v>9135.48</v>
+      </c>
+      <c r="R4" s="26">
+        <v>9290.4</v>
+      </c>
+      <c r="S4" s="34">
+        <v>9058.0680000000011</v>
+      </c>
+      <c r="T4" s="34">
+        <v>9405.5999999999985</v>
+      </c>
+      <c r="U4" s="34">
+        <v>29011.199999999997</v>
+      </c>
+      <c r="V4" s="34">
+        <v>2516.3999999999996</v>
+      </c>
+      <c r="W4" s="34">
+        <v>31593.599999999999</v>
+      </c>
+      <c r="X4" s="26">
+        <v>10141.200000000001</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>10452</v>
+      </c>
+      <c r="Z4" s="34">
+        <v>19625.808000000001</v>
+      </c>
+      <c r="AA4" s="34">
+        <v>20129.027999999998</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="26">
+        <v>20593.2</v>
+      </c>
+      <c r="AG4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="26">
+        <v>30396</v>
+      </c>
+      <c r="AU4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="34">
+        <v>9057.6</v>
+      </c>
+      <c r="AW4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="26">
+        <v>8605.1999999999989</v>
+      </c>
+      <c r="BA4" s="26">
+        <v>9600</v>
+      </c>
+      <c r="BB4" s="26">
+        <v>11266.8</v>
+      </c>
+      <c r="BC4" s="34">
+        <v>8051.616</v>
+      </c>
+      <c r="BD4" s="34">
+        <v>8670.9719999999998</v>
+      </c>
+      <c r="BE4" s="26">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="26">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="26">
+        <v>8051.9999999999991</v>
+      </c>
+      <c r="BH4" s="26">
+        <v>8051.9999999999991</v>
+      </c>
+      <c r="BI4" s="26">
+        <v>6710</v>
+      </c>
+      <c r="BJ4" s="26">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="26">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26">
+        <v>609000</v>
+      </c>
+      <c r="C5" s="34">
+        <v>183164.52000000002</v>
+      </c>
+      <c r="D5" s="34">
+        <v>27677.424000000003</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <v>437187.09600000002</v>
+      </c>
+      <c r="G5" s="34">
+        <v>117832.26000000001</v>
+      </c>
+      <c r="H5" s="34">
+        <v>256132.92000000004</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="34">
+        <f>149032/25*30</f>
+        <v>178838.39999999999</v>
+      </c>
+      <c r="L5" s="34">
+        <v>156193.19999999998</v>
+      </c>
+      <c r="M5" s="34">
+        <f>126193/25*30</f>
+        <v>151431.6</v>
+      </c>
+      <c r="N5" s="34">
+        <v>29612</v>
+      </c>
+      <c r="O5" s="34">
+        <v>228717.6</v>
+      </c>
+      <c r="P5" s="26">
+        <v>61036</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>198464.4</v>
+      </c>
+      <c r="R5" s="34">
+        <v>176709.59999999998</v>
+      </c>
+      <c r="S5" s="34">
+        <v>160024.79999999999</v>
+      </c>
+      <c r="T5" s="34">
+        <v>558160.80000000005</v>
+      </c>
+      <c r="U5" s="26">
+        <v>1798614</v>
+      </c>
+      <c r="V5" s="34">
+        <v>393434</v>
+      </c>
+      <c r="W5" s="34">
+        <v>1208073.6000000001</v>
+      </c>
+      <c r="X5" s="26">
+        <v>457134</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>542133</v>
+      </c>
+      <c r="Z5" s="34">
+        <f>614027.424+33000</f>
+        <v>647027.424</v>
+      </c>
+      <c r="AA5" s="34">
+        <v>632612.9040000001</v>
+      </c>
+      <c r="AB5" s="34">
+        <v>134582</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>41167</v>
+      </c>
+      <c r="AD5" s="34">
+        <v>36551</v>
+      </c>
+      <c r="AE5" s="34">
+        <v>15845</v>
+      </c>
+      <c r="AF5" s="26">
+        <v>583954.80000000005</v>
+      </c>
+      <c r="AG5" s="26">
+        <v>57552</v>
+      </c>
+      <c r="AH5" s="34">
+        <v>74477.423999999999</v>
+      </c>
+      <c r="AI5" s="34">
+        <v>100113</v>
+      </c>
+      <c r="AJ5" s="26">
+        <v>151739</v>
+      </c>
+      <c r="AK5" s="26">
+        <f>395848+207096</f>
+        <v>602944</v>
+      </c>
+      <c r="AL5" s="26">
+        <v>104400</v>
+      </c>
+      <c r="AM5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="34">
+        <v>924309.6</v>
+      </c>
+      <c r="AU5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="34">
+        <v>86709.6</v>
+      </c>
+      <c r="AW5" s="34">
+        <v>61393.200000000004</v>
+      </c>
+      <c r="AX5" s="34">
+        <v>53341.2</v>
+      </c>
+      <c r="AY5" s="34">
+        <v>24154.799999999999</v>
+      </c>
+      <c r="AZ5" s="34">
+        <v>108963.87599999999</v>
+      </c>
+      <c r="BA5" s="26">
+        <v>194883.6</v>
+      </c>
+      <c r="BB5" s="26">
+        <v>114000</v>
+      </c>
+      <c r="BC5" s="34">
+        <v>130141.2</v>
+      </c>
+      <c r="BD5" s="34">
+        <v>120309.67200000001</v>
+      </c>
+      <c r="BE5" s="26">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="26">
+        <v>57600</v>
+      </c>
+      <c r="BG5" s="26">
+        <v>160722</v>
+      </c>
+      <c r="BH5" s="26">
+        <v>127548.00000000001</v>
+      </c>
+      <c r="BI5" s="26">
+        <v>123470</v>
+      </c>
+      <c r="BJ5" s="34">
+        <v>78658.067999999999</v>
+      </c>
+      <c r="BK5" s="34">
+        <v>67935.48</v>
+      </c>
+      <c r="BL5" s="34">
+        <v>64451.616000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26">
+        <f>73500-7350</f>
+        <v>66150</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0</v>
+      </c>
+      <c r="R6" s="26">
+        <v>0</v>
+      </c>
+      <c r="S6" s="26">
+        <v>0</v>
+      </c>
+      <c r="T6" s="26">
+        <v>20967</v>
+      </c>
+      <c r="U6" s="26">
+        <v>113774</v>
+      </c>
+      <c r="V6" s="26">
+        <v>8709</v>
+      </c>
+      <c r="W6" s="26">
+        <v>41633</v>
+      </c>
+      <c r="X6" s="26">
+        <v>12580</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>79470</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="35">
+        <v>72000</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="26">
+        <v>1395906</v>
+      </c>
+      <c r="AG6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="36">
+        <f>45342+140000</f>
+        <v>185342</v>
+      </c>
+      <c r="AL6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="26">
+        <f>124000-12400+1210/25*30</f>
+        <v>113052</v>
+      </c>
+      <c r="AU6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="26">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="26">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="33">
+        <f>SUM(B4:B6)</f>
+        <v>687730.8</v>
+      </c>
+      <c r="C7" s="33">
+        <f t="shared" ref="C7:BL7" si="0">SUM(C4:C6)</f>
+        <v>191370.97200000001</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" si="0"/>
+        <v>31703.232000000004</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="0"/>
+        <v>446167.74</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="0"/>
+        <v>125419.35600000001</v>
+      </c>
+      <c r="H7" s="33">
+        <f t="shared" si="0"/>
+        <v>259616.79600000003</v>
+      </c>
+      <c r="I7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
+        <f t="shared" si="0"/>
+        <v>187908.53999999998</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="0"/>
+        <v>165871.74</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="0"/>
+        <v>160448.90400000001</v>
+      </c>
+      <c r="N7" s="33">
+        <f t="shared" si="0"/>
+        <v>29612</v>
+      </c>
+      <c r="O7" s="33">
+        <f t="shared" si="0"/>
+        <v>236614.80000000002</v>
+      </c>
+      <c r="P7" s="33">
+        <f t="shared" si="0"/>
+        <v>61036</v>
+      </c>
+      <c r="Q7" s="33">
+        <f t="shared" si="0"/>
+        <v>207599.88</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" si="0"/>
+        <v>185999.99999999997</v>
+      </c>
+      <c r="S7" s="33">
+        <f t="shared" si="0"/>
+        <v>169082.86799999999</v>
+      </c>
+      <c r="T7" s="33">
+        <f t="shared" si="0"/>
+        <v>588533.4</v>
+      </c>
+      <c r="U7" s="33">
+        <f t="shared" si="0"/>
+        <v>1941399.2</v>
+      </c>
+      <c r="V7" s="33">
+        <f t="shared" si="0"/>
+        <v>404659.4</v>
+      </c>
+      <c r="W7" s="33">
+        <f t="shared" si="0"/>
+        <v>1281300.2000000002</v>
+      </c>
+      <c r="X7" s="33">
+        <f t="shared" si="0"/>
+        <v>479855.2</v>
+      </c>
+      <c r="Y7" s="33">
+        <f t="shared" si="0"/>
+        <v>632055</v>
+      </c>
+      <c r="Z7" s="33">
+        <f t="shared" si="0"/>
+        <v>666653.23199999996</v>
+      </c>
+      <c r="AA7" s="33">
+        <f t="shared" si="0"/>
+        <v>724741.93200000015</v>
+      </c>
+      <c r="AB7" s="33">
+        <f t="shared" si="0"/>
+        <v>134582</v>
+      </c>
+      <c r="AC7" s="33">
+        <f t="shared" si="0"/>
+        <v>41167</v>
+      </c>
+      <c r="AD7" s="33">
+        <f t="shared" si="0"/>
+        <v>36551</v>
+      </c>
+      <c r="AE7" s="33">
+        <f t="shared" si="0"/>
+        <v>15845</v>
+      </c>
+      <c r="AF7" s="33">
+        <f t="shared" si="0"/>
+        <v>2000454</v>
+      </c>
+      <c r="AG7" s="33">
+        <f t="shared" si="0"/>
+        <v>57552</v>
+      </c>
+      <c r="AH7" s="33">
+        <f t="shared" si="0"/>
+        <v>74477.423999999999</v>
+      </c>
+      <c r="AI7" s="33">
+        <f t="shared" si="0"/>
+        <v>100113</v>
+      </c>
+      <c r="AJ7" s="33">
+        <f t="shared" si="0"/>
+        <v>151739</v>
+      </c>
+      <c r="AK7" s="33">
+        <f t="shared" si="0"/>
+        <v>788286</v>
+      </c>
+      <c r="AL7" s="33">
+        <f t="shared" si="0"/>
+        <v>104400</v>
+      </c>
+      <c r="AM7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="33">
+        <f t="shared" si="0"/>
+        <v>1067757.6000000001</v>
+      </c>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33">
+        <f t="shared" si="0"/>
+        <v>95767.200000000012</v>
+      </c>
+      <c r="AW7" s="33">
+        <f t="shared" si="0"/>
+        <v>61393.200000000004</v>
+      </c>
+      <c r="AX7" s="33">
+        <f t="shared" si="0"/>
+        <v>53341.2</v>
+      </c>
+      <c r="AY7" s="33">
+        <f t="shared" si="0"/>
+        <v>24154.799999999999</v>
+      </c>
+      <c r="AZ7" s="33">
+        <f t="shared" si="0"/>
+        <v>117569.07599999999</v>
+      </c>
+      <c r="BA7" s="33">
+        <f t="shared" si="0"/>
+        <v>204483.6</v>
+      </c>
+      <c r="BB7" s="33">
+        <f t="shared" si="0"/>
+        <v>125266.8</v>
+      </c>
+      <c r="BC7" s="33">
+        <f t="shared" si="0"/>
+        <v>138192.81599999999</v>
+      </c>
+      <c r="BD7" s="33">
+        <f t="shared" si="0"/>
+        <v>128980.644</v>
+      </c>
+      <c r="BE7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF7" s="33">
+        <f t="shared" si="0"/>
+        <v>57600</v>
+      </c>
+      <c r="BG7" s="33">
+        <f t="shared" si="0"/>
+        <v>168774</v>
+      </c>
+      <c r="BH7" s="33">
+        <f t="shared" si="0"/>
+        <v>135600</v>
+      </c>
+      <c r="BI7" s="33">
+        <f t="shared" si="0"/>
+        <v>130180</v>
+      </c>
+      <c r="BJ7" s="33">
+        <f t="shared" si="0"/>
+        <v>78658.067999999999</v>
+      </c>
+      <c r="BK7" s="33">
+        <f t="shared" si="0"/>
+        <v>67935.48</v>
+      </c>
+      <c r="BL7" s="33">
+        <f t="shared" si="0"/>
+        <v>64451.616000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6968</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>7500</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="R10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>8500</v>
+      </c>
+      <c r="T10" s="2">
+        <v>10452</v>
+      </c>
+      <c r="U10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="V10" s="2">
+        <v>2500</v>
+      </c>
+      <c r="W10" s="2">
+        <v>13000</v>
+      </c>
+      <c r="X10" s="2">
+        <v>10452</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>10452</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>7000</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>8500</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>11782</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>8000</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>7742</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>4645</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>22600</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="L11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="M11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="O11" s="2">
+        <v>17500</v>
+      </c>
+      <c r="P11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="R11" s="2">
+        <v>21000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>17500</v>
+      </c>
+      <c r="T11" s="2">
+        <v>21000</v>
+      </c>
+      <c r="U11" s="2">
+        <v>21000</v>
+      </c>
+      <c r="V11" s="2">
+        <v>22000</v>
+      </c>
+      <c r="W11" s="2">
+        <v>17500</v>
+      </c>
+      <c r="X11" s="2">
+        <v>22000</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>22000</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>21000</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>12600</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>7250</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>6500</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>6500</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>14500</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>12200</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>18200</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>12000</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>14000</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>12500</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>16500</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>41226</v>
+      </c>
+      <c r="U12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V12" s="2">
+        <v>48000</v>
+      </c>
+      <c r="W12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="X12" s="2">
+        <v>19603</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>20600</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>51600</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>56000</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>46200</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4">
+        <f>IFERROR(B4/B10,0)</f>
+        <v>1.006464</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:BL17" si="1">IFERROR(C4/C10,0)</f>
+        <v>1.0941936000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.50322599999999995</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2888409873708382</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.083870857142857</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.580646</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0077933333333333</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0753933333333332</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0019226666666667</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0529600000000001</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1419349999999999</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1613</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0656550588235296</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89988518943742812</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9011199999999997</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0065599999999999</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="1"/>
+        <v>2.430276923076923</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.9702640642939151</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9625808</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0129028</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <f t="shared" si="1"/>
+        <v>2.05932</v>
+      </c>
+      <c r="AG15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0396000000000001</v>
+      </c>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2293142857142856</v>
+      </c>
+      <c r="BA15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1294117647058823</v>
+      </c>
+      <c r="BB15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95627227974876927</v>
+      </c>
+      <c r="BC15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0064519999999999</v>
+      </c>
+      <c r="BD15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0838714999999999</v>
+      </c>
+      <c r="BE15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0400413329888916</v>
+      </c>
+      <c r="BH15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7334768568353065</v>
+      </c>
+      <c r="BI15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B28/B11</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <f>C28/C11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5161294545454549</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>19.344561769911504</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.6020812903225812</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>16.008307500000004</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="1"/>
+        <v>11.922559999999999</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="1"/>
+        <v>10.412879999999999</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="1"/>
+        <v>10.09544</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9741333333333333</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="1"/>
+        <v>13.069577142857144</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.6295000000000002</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="1"/>
+        <v>11.0258</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4147428571428566</v>
+      </c>
+      <c r="S16" s="4">
+        <f t="shared" si="1"/>
+        <v>9.1442742857142854</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="1"/>
+        <v>26.579085714285718</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="1"/>
+        <v>85.64828571428572</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="1"/>
+        <v>17.883363636363637</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" si="1"/>
+        <v>69.032777142857142</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="1"/>
+        <v>20.778818181818181</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="1"/>
+        <v>24.642409090909091</v>
+      </c>
+      <c r="Z16" s="4">
+        <f t="shared" si="1"/>
+        <v>30.810829714285713</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="1"/>
+        <v>31.630645200000004</v>
+      </c>
+      <c r="AB16" s="4">
+        <f t="shared" si="1"/>
+        <v>10.681111111111111</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" si="1"/>
+        <v>5.6782068965517238</v>
+      </c>
+      <c r="AD16" s="4">
+        <f t="shared" si="1"/>
+        <v>5.6232307692307693</v>
+      </c>
+      <c r="AE16" s="4">
+        <f t="shared" si="1"/>
+        <v>3.169</v>
+      </c>
+      <c r="AF16" s="4">
+        <f t="shared" si="1"/>
+        <v>29.197740000000003</v>
+      </c>
+      <c r="AG16" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8541538461538458</v>
+      </c>
+      <c r="AH16" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1363740689655168</v>
+      </c>
+      <c r="AI16" s="4">
+        <f t="shared" si="1"/>
+        <v>10.0113</v>
+      </c>
+      <c r="AJ16" s="4">
+        <f t="shared" si="1"/>
+        <v>12.437622950819673</v>
+      </c>
+      <c r="AK16" s="4">
+        <f t="shared" si="1"/>
+        <v>33.128791208791206</v>
+      </c>
+      <c r="AL16" s="4">
+        <f t="shared" si="1"/>
+        <v>6.96</v>
+      </c>
+      <c r="AM16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="4">
+        <f t="shared" si="1"/>
+        <v>46.215479999999999</v>
+      </c>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6709600000000009</v>
+      </c>
+      <c r="AW16" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1161000000000003</v>
+      </c>
+      <c r="AX16" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6676500000000001</v>
+      </c>
+      <c r="AY16" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0193499999999998</v>
+      </c>
+      <c r="AZ16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.7831339999999996</v>
+      </c>
+      <c r="BA16" s="4">
+        <f t="shared" si="1"/>
+        <v>10.826866666666668</v>
+      </c>
+      <c r="BB16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.125</v>
+      </c>
+      <c r="BC16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.2300666666666666</v>
+      </c>
+      <c r="BD16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.5193545000000004</v>
+      </c>
+      <c r="BE16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF16" s="4">
+        <f t="shared" si="1"/>
+        <v>3.84</v>
+      </c>
+      <c r="BG16" s="4">
+        <f t="shared" si="1"/>
+        <v>8.9290000000000003</v>
+      </c>
+      <c r="BH16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.7301818181818192</v>
+      </c>
+      <c r="BI16" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8594444444444447</v>
+      </c>
+      <c r="BJ16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.91612925</v>
+      </c>
+      <c r="BK16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2459674999999999</v>
+      </c>
+      <c r="BL16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0282260000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" ref="B17:BJ17" si="2">IFERROR(B6/B12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.50858681414641249</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7405833333333334</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1814375</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7347083333333333</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.64173850941182475</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8577669902912621</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.44</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <f t="shared" si="2"/>
+        <v>24.926892857142857</v>
+      </c>
+      <c r="AG17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0117316017316016</v>
+      </c>
+      <c r="AL17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8262999999999998</v>
+      </c>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BI17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>2</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1</v>
+      </c>
+      <c r="W20" s="2">
+        <v>7</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>23</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>13</v>
+      </c>
+      <c r="L21" s="2">
+        <v>10</v>
+      </c>
+      <c r="M21" s="2">
+        <v>10</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3</v>
+      </c>
+      <c r="O21" s="2">
+        <v>13</v>
+      </c>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>11</v>
+      </c>
+      <c r="R21" s="2">
+        <v>10</v>
+      </c>
+      <c r="S21" s="2">
+        <v>9</v>
+      </c>
+      <c r="T21" s="2">
+        <v>26</v>
+      </c>
+      <c r="U21" s="2">
+        <v>62</v>
+      </c>
+      <c r="V21" s="2">
+        <v>15</v>
+      </c>
+      <c r="W21" s="2">
+        <v>62</v>
+      </c>
+      <c r="X21" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>52</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>32</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>24</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>13</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>11</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>7</v>
+      </c>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2">
+        <v>7</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AW21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>8</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>10</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>7</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>6</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>7</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>3</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>6</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>7</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>5</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>4</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>26</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/vyuha/others/mis/input_files/Last Mile Logistics Cost Tracker.xlsx
+++ b/vyuha/others/mis/input_files/Last Mile Logistics Cost Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ascent\App\Maarg\vyuha\others\mis\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361267D-28B3-4C21-A270-413C7737F03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3DB51A-B0A1-4131-83C7-61B246A1C07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="7" xr2:uid="{8E86AF5B-549C-4CA3-9FF8-9EDCF7B528C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="8" xr2:uid="{8E86AF5B-549C-4CA3-9FF8-9EDCF7B528C7}"/>
   </bookViews>
   <sheets>
     <sheet name="April 22" sheetId="25" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="September 22" sheetId="34" r:id="rId6"/>
     <sheet name="October 22" sheetId="35" r:id="rId7"/>
     <sheet name="November 22" sheetId="36" r:id="rId8"/>
+    <sheet name="December 22" sheetId="37" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -684,8 +685,32 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{282295C2-CBA3-48A4-9BAA-6D262712FF16}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Total DB Expense 1906540
+	-Mangesh Shinde</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="82">
   <si>
     <t>Logistics</t>
   </si>
@@ -929,6 +954,9 @@
   <si>
     <t>Vijayawada</t>
   </si>
+  <si>
+    <t>Bhatinda</t>
+  </si>
 </sst>
 </file>
 
@@ -939,7 +967,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,8 +1037,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1077,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1207,7 +1275,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1307,6 +1375,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1710,7 +1810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23054,8 +23154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D118DF-4D35-4779-B488-6D9FD8AD22E1}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26422,4 +26522,3654 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C63ACF-CA21-4E02-9EA7-D823BF789D61}">
+  <dimension ref="A1:BM22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM1" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ1" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM1" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="39"/>
+      <c r="BH3" s="39"/>
+      <c r="BI3" s="39"/>
+      <c r="BJ3" s="39"/>
+      <c r="BK3" s="39"/>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="40">
+        <v>13817</v>
+      </c>
+      <c r="C4" s="40">
+        <v>8267</v>
+      </c>
+      <c r="D4" s="40">
+        <v>0</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0</v>
+      </c>
+      <c r="F4" s="40">
+        <v>8800</v>
+      </c>
+      <c r="G4" s="40">
+        <f>7000+3894</f>
+        <v>10894</v>
+      </c>
+      <c r="H4" s="40">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="40">
+        <v>0</v>
+      </c>
+      <c r="J4" s="40">
+        <v>0</v>
+      </c>
+      <c r="K4" s="40">
+        <v>9613</v>
+      </c>
+      <c r="L4" s="40">
+        <v>8530</v>
+      </c>
+      <c r="M4" s="40">
+        <v>9557</v>
+      </c>
+      <c r="N4" s="40">
+        <v>0</v>
+      </c>
+      <c r="O4" s="40">
+        <v>8266</v>
+      </c>
+      <c r="P4" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>8533</v>
+      </c>
+      <c r="R4" s="40">
+        <v>9000</v>
+      </c>
+      <c r="S4" s="40">
+        <v>8550</v>
+      </c>
+      <c r="T4" s="40">
+        <v>9300</v>
+      </c>
+      <c r="U4" s="40">
+        <v>22488</v>
+      </c>
+      <c r="V4" s="40">
+        <v>10200</v>
+      </c>
+      <c r="W4" s="40">
+        <v>29838</v>
+      </c>
+      <c r="X4" s="40">
+        <v>11420</v>
+      </c>
+      <c r="Y4" s="40">
+        <v>9300</v>
+      </c>
+      <c r="Z4" s="40">
+        <v>19500</v>
+      </c>
+      <c r="AA4" s="40">
+        <v>20667</v>
+      </c>
+      <c r="AB4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="40">
+        <v>20267</v>
+      </c>
+      <c r="AH4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="40">
+        <v>20674</v>
+      </c>
+      <c r="AV4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="40">
+        <v>4500</v>
+      </c>
+      <c r="AX4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="40">
+        <v>7700</v>
+      </c>
+      <c r="BB4" s="40">
+        <v>8000</v>
+      </c>
+      <c r="BC4" s="40">
+        <v>10396</v>
+      </c>
+      <c r="BD4" s="40">
+        <v>8000</v>
+      </c>
+      <c r="BE4" s="40">
+        <v>9673</v>
+      </c>
+      <c r="BF4" s="40">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="40">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="40">
+        <v>6933</v>
+      </c>
+      <c r="BI4" s="40">
+        <v>6933</v>
+      </c>
+      <c r="BJ4" s="40">
+        <v>8000</v>
+      </c>
+      <c r="BK4" s="40">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="40">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="40">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="40">
+        <v>489500</v>
+      </c>
+      <c r="C5" s="40">
+        <v>184267</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40">
+        <v>530833</v>
+      </c>
+      <c r="G5" s="40">
+        <v>106866</v>
+      </c>
+      <c r="H5" s="40">
+        <v>211781</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0</v>
+      </c>
+      <c r="J5" s="40">
+        <v>0</v>
+      </c>
+      <c r="K5" s="40">
+        <v>176500</v>
+      </c>
+      <c r="L5" s="40">
+        <v>160000</v>
+      </c>
+      <c r="M5" s="40">
+        <f>51200+96000</f>
+        <v>147200</v>
+      </c>
+      <c r="N5" s="40">
+        <v>43500</v>
+      </c>
+      <c r="O5" s="40">
+        <v>231365</v>
+      </c>
+      <c r="P5" s="40">
+        <v>49926</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>202367</v>
+      </c>
+      <c r="R5" s="40">
+        <v>175566</v>
+      </c>
+      <c r="S5" s="40">
+        <v>158450</v>
+      </c>
+      <c r="T5" s="40">
+        <f>543780-T6</f>
+        <v>517780</v>
+      </c>
+      <c r="U5" s="40">
+        <f>1906540-U6</f>
+        <v>1753506</v>
+      </c>
+      <c r="V5" s="40">
+        <v>358031</v>
+      </c>
+      <c r="W5" s="40">
+        <v>1271965</v>
+      </c>
+      <c r="X5" s="40">
+        <f>441137</f>
+        <v>441137</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>580138</v>
+      </c>
+      <c r="Z5" s="40">
+        <f>595620+495601+33000</f>
+        <v>1124221</v>
+      </c>
+      <c r="AA5" s="40">
+        <v>639117</v>
+      </c>
+      <c r="AB5" s="40">
+        <v>110600</v>
+      </c>
+      <c r="AC5" s="40">
+        <v>32992</v>
+      </c>
+      <c r="AD5" s="40">
+        <v>34067</v>
+      </c>
+      <c r="AE5" s="40">
+        <v>10000</v>
+      </c>
+      <c r="AF5" s="40">
+        <v>25150</v>
+      </c>
+      <c r="AG5" s="40">
+        <v>590441</v>
+      </c>
+      <c r="AH5" s="40">
+        <v>20782</v>
+      </c>
+      <c r="AI5" s="40">
+        <v>74000</v>
+      </c>
+      <c r="AJ5" s="40">
+        <v>112464</v>
+      </c>
+      <c r="AK5" s="40">
+        <v>176082</v>
+      </c>
+      <c r="AL5" s="40">
+        <f>220962+398764</f>
+        <v>619726</v>
+      </c>
+      <c r="AM5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="40">
+        <v>852032</v>
+      </c>
+      <c r="AV5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="40">
+        <v>48833</v>
+      </c>
+      <c r="AX5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="40">
+        <v>110043</v>
+      </c>
+      <c r="BB5" s="40">
+        <v>194000</v>
+      </c>
+      <c r="BC5" s="40">
+        <v>109033</v>
+      </c>
+      <c r="BD5" s="40">
+        <v>133333</v>
+      </c>
+      <c r="BE5" s="40">
+        <v>118401</v>
+      </c>
+      <c r="BF5" s="40">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="40">
+        <v>47733</v>
+      </c>
+      <c r="BH5" s="40">
+        <v>156600</v>
+      </c>
+      <c r="BI5" s="40">
+        <v>119684</v>
+      </c>
+      <c r="BJ5" s="40">
+        <v>122567</v>
+      </c>
+      <c r="BK5" s="40">
+        <v>78400</v>
+      </c>
+      <c r="BL5" s="40">
+        <v>68033</v>
+      </c>
+      <c r="BM5" s="40">
+        <v>100667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="40">
+        <f>82500/1.1</f>
+        <v>75000</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0</v>
+      </c>
+      <c r="J6" s="40">
+        <v>0</v>
+      </c>
+      <c r="K6" s="40">
+        <v>0</v>
+      </c>
+      <c r="L6" s="40">
+        <v>0</v>
+      </c>
+      <c r="M6" s="40">
+        <v>6000</v>
+      </c>
+      <c r="N6" s="40">
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
+        <v>0</v>
+      </c>
+      <c r="P6" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>0</v>
+      </c>
+      <c r="R6" s="40">
+        <v>0</v>
+      </c>
+      <c r="S6" s="40">
+        <v>0</v>
+      </c>
+      <c r="T6" s="40">
+        <v>26000</v>
+      </c>
+      <c r="U6" s="40">
+        <v>153034</v>
+      </c>
+      <c r="V6" s="40">
+        <v>10200</v>
+      </c>
+      <c r="W6" s="40">
+        <v>56933</v>
+      </c>
+      <c r="X6" s="40">
+        <v>65600</v>
+      </c>
+      <c r="Y6" s="40">
+        <v>78883</v>
+      </c>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="41">
+        <v>74000</v>
+      </c>
+      <c r="AB6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="40">
+        <f>335900+562350+495000</f>
+        <v>1393250</v>
+      </c>
+      <c r="AH6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="42">
+        <f>124000/1.1</f>
+        <v>112727.27272727272</v>
+      </c>
+      <c r="AV6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="40">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="43">
+        <f t="shared" ref="B7:BM7" si="0">SUM(B4:B6)</f>
+        <v>578317</v>
+      </c>
+      <c r="C7" s="43">
+        <f t="shared" si="0"/>
+        <v>192534</v>
+      </c>
+      <c r="D7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="43">
+        <f t="shared" si="0"/>
+        <v>539633</v>
+      </c>
+      <c r="G7" s="43">
+        <f t="shared" si="0"/>
+        <v>117760</v>
+      </c>
+      <c r="H7" s="43">
+        <f t="shared" si="0"/>
+        <v>216781</v>
+      </c>
+      <c r="I7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="43">
+        <f t="shared" si="0"/>
+        <v>186113</v>
+      </c>
+      <c r="L7" s="43">
+        <f t="shared" si="0"/>
+        <v>168530</v>
+      </c>
+      <c r="M7" s="43">
+        <f t="shared" si="0"/>
+        <v>162757</v>
+      </c>
+      <c r="N7" s="43">
+        <f t="shared" si="0"/>
+        <v>43500</v>
+      </c>
+      <c r="O7" s="43">
+        <f t="shared" si="0"/>
+        <v>239631</v>
+      </c>
+      <c r="P7" s="43">
+        <f t="shared" si="0"/>
+        <v>49926</v>
+      </c>
+      <c r="Q7" s="43">
+        <f t="shared" si="0"/>
+        <v>210900</v>
+      </c>
+      <c r="R7" s="43">
+        <f t="shared" si="0"/>
+        <v>184566</v>
+      </c>
+      <c r="S7" s="43">
+        <f t="shared" si="0"/>
+        <v>167000</v>
+      </c>
+      <c r="T7" s="43">
+        <f t="shared" si="0"/>
+        <v>553080</v>
+      </c>
+      <c r="U7" s="43">
+        <f t="shared" si="0"/>
+        <v>1929028</v>
+      </c>
+      <c r="V7" s="43">
+        <f t="shared" si="0"/>
+        <v>378431</v>
+      </c>
+      <c r="W7" s="43">
+        <f t="shared" si="0"/>
+        <v>1358736</v>
+      </c>
+      <c r="X7" s="43">
+        <f t="shared" si="0"/>
+        <v>518157</v>
+      </c>
+      <c r="Y7" s="43">
+        <f t="shared" si="0"/>
+        <v>668321</v>
+      </c>
+      <c r="Z7" s="43">
+        <f t="shared" si="0"/>
+        <v>1143721</v>
+      </c>
+      <c r="AA7" s="43">
+        <f t="shared" si="0"/>
+        <v>733784</v>
+      </c>
+      <c r="AB7" s="43">
+        <f t="shared" si="0"/>
+        <v>110600</v>
+      </c>
+      <c r="AC7" s="43">
+        <f t="shared" si="0"/>
+        <v>32992</v>
+      </c>
+      <c r="AD7" s="43">
+        <f t="shared" si="0"/>
+        <v>34067</v>
+      </c>
+      <c r="AE7" s="43">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="AF7" s="43">
+        <f t="shared" si="0"/>
+        <v>25150</v>
+      </c>
+      <c r="AG7" s="43">
+        <f t="shared" si="0"/>
+        <v>2003958</v>
+      </c>
+      <c r="AH7" s="43">
+        <f t="shared" si="0"/>
+        <v>20782</v>
+      </c>
+      <c r="AI7" s="43">
+        <f t="shared" si="0"/>
+        <v>74000</v>
+      </c>
+      <c r="AJ7" s="43">
+        <f t="shared" si="0"/>
+        <v>112464</v>
+      </c>
+      <c r="AK7" s="43">
+        <f t="shared" si="0"/>
+        <v>176082</v>
+      </c>
+      <c r="AL7" s="43">
+        <f t="shared" si="0"/>
+        <v>619726</v>
+      </c>
+      <c r="AM7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="44">
+        <f t="shared" si="0"/>
+        <v>985433.27272727271</v>
+      </c>
+      <c r="AV7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="43">
+        <f t="shared" si="0"/>
+        <v>53333</v>
+      </c>
+      <c r="AX7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="43">
+        <f t="shared" si="0"/>
+        <v>117743</v>
+      </c>
+      <c r="BB7" s="43">
+        <f t="shared" si="0"/>
+        <v>202000</v>
+      </c>
+      <c r="BC7" s="43">
+        <f t="shared" si="0"/>
+        <v>119429</v>
+      </c>
+      <c r="BD7" s="43">
+        <f t="shared" si="0"/>
+        <v>141333</v>
+      </c>
+      <c r="BE7" s="43">
+        <f t="shared" si="0"/>
+        <v>128074</v>
+      </c>
+      <c r="BF7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="43">
+        <f t="shared" si="0"/>
+        <v>47733</v>
+      </c>
+      <c r="BH7" s="43">
+        <f t="shared" si="0"/>
+        <v>163533</v>
+      </c>
+      <c r="BI7" s="43">
+        <f t="shared" si="0"/>
+        <v>126617</v>
+      </c>
+      <c r="BJ7" s="43">
+        <f t="shared" si="0"/>
+        <v>130567</v>
+      </c>
+      <c r="BK7" s="43">
+        <f t="shared" si="0"/>
+        <v>78400</v>
+      </c>
+      <c r="BL7" s="43">
+        <f t="shared" si="0"/>
+        <v>68033</v>
+      </c>
+      <c r="BM7" s="43">
+        <f t="shared" si="0"/>
+        <v>108667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39">
+        <f>554310-Y7</f>
+        <v>-114011</v>
+      </c>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="45">
+        <f>AU7-63000</f>
+        <v>922433.27272727271</v>
+      </c>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
+      <c r="BF8" s="39"/>
+      <c r="BG8" s="39"/>
+      <c r="BH8" s="39"/>
+      <c r="BI8" s="39"/>
+      <c r="BJ8" s="39"/>
+      <c r="BK8" s="39"/>
+      <c r="BL8" s="39"/>
+      <c r="BM8" s="39"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39"/>
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39"/>
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="46">
+        <v>12500</v>
+      </c>
+      <c r="C10" s="46">
+        <v>7500</v>
+      </c>
+      <c r="D10" s="46">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <v>8800</v>
+      </c>
+      <c r="G10" s="46">
+        <v>10894</v>
+      </c>
+      <c r="H10" s="46">
+        <v>6000</v>
+      </c>
+      <c r="I10" s="46">
+        <v>0</v>
+      </c>
+      <c r="J10" s="46">
+        <v>0</v>
+      </c>
+      <c r="K10" s="46">
+        <v>9000</v>
+      </c>
+      <c r="L10" s="46">
+        <v>9000</v>
+      </c>
+      <c r="M10" s="46">
+        <v>9000</v>
+      </c>
+      <c r="N10" s="46">
+        <v>0</v>
+      </c>
+      <c r="O10" s="46">
+        <v>7500</v>
+      </c>
+      <c r="P10" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>8000</v>
+      </c>
+      <c r="R10" s="46">
+        <v>8000</v>
+      </c>
+      <c r="S10" s="46">
+        <v>8500</v>
+      </c>
+      <c r="T10" s="46">
+        <v>10452</v>
+      </c>
+      <c r="U10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="V10" s="46">
+        <v>2500</v>
+      </c>
+      <c r="W10" s="46">
+        <v>13000</v>
+      </c>
+      <c r="X10" s="46">
+        <v>10452</v>
+      </c>
+      <c r="Y10" s="46">
+        <v>10452</v>
+      </c>
+      <c r="Z10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="AA10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="AB10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="AH10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="AV10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="46">
+        <v>7000</v>
+      </c>
+      <c r="BB10" s="46">
+        <v>8500</v>
+      </c>
+      <c r="BC10" s="46">
+        <v>11782</v>
+      </c>
+      <c r="BD10" s="46">
+        <v>8000</v>
+      </c>
+      <c r="BE10" s="46">
+        <v>8000</v>
+      </c>
+      <c r="BF10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="46">
+        <v>7742</v>
+      </c>
+      <c r="BI10" s="46">
+        <v>4645</v>
+      </c>
+      <c r="BJ10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="46">
+        <v>18000</v>
+      </c>
+      <c r="C11" s="46">
+        <v>18000</v>
+      </c>
+      <c r="D11" s="46">
+        <v>11000</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46">
+        <v>22600</v>
+      </c>
+      <c r="G11" s="46">
+        <v>15500</v>
+      </c>
+      <c r="H11" s="46">
+        <v>17500</v>
+      </c>
+      <c r="I11" s="46">
+        <v>8000</v>
+      </c>
+      <c r="J11" s="46">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="46">
+        <v>15000</v>
+      </c>
+      <c r="L11" s="46">
+        <v>15000</v>
+      </c>
+      <c r="M11" s="46">
+        <v>15000</v>
+      </c>
+      <c r="N11" s="46">
+        <v>15000</v>
+      </c>
+      <c r="O11" s="46">
+        <v>17500</v>
+      </c>
+      <c r="P11" s="46">
+        <f>8000+5300</f>
+        <v>13300</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>18000</v>
+      </c>
+      <c r="R11" s="46">
+        <v>21000</v>
+      </c>
+      <c r="S11" s="46">
+        <v>17500</v>
+      </c>
+      <c r="T11" s="46">
+        <v>21000</v>
+      </c>
+      <c r="U11" s="46">
+        <v>21000</v>
+      </c>
+      <c r="V11" s="46">
+        <v>22000</v>
+      </c>
+      <c r="W11" s="46">
+        <v>17500</v>
+      </c>
+      <c r="X11" s="46">
+        <v>22000</v>
+      </c>
+      <c r="Y11" s="46">
+        <v>22000</v>
+      </c>
+      <c r="Z11" s="46">
+        <v>19500</v>
+      </c>
+      <c r="AA11" s="46">
+        <v>20000</v>
+      </c>
+      <c r="AB11" s="46">
+        <v>12600</v>
+      </c>
+      <c r="AC11" s="46">
+        <v>7250</v>
+      </c>
+      <c r="AD11" s="46">
+        <v>6000</v>
+      </c>
+      <c r="AE11" s="46">
+        <v>5000</v>
+      </c>
+      <c r="AF11" s="46">
+        <v>6000</v>
+      </c>
+      <c r="AG11" s="46">
+        <v>20000</v>
+      </c>
+      <c r="AH11" s="46">
+        <v>6500</v>
+      </c>
+      <c r="AI11" s="46">
+        <v>14500</v>
+      </c>
+      <c r="AJ11" s="46">
+        <v>10000</v>
+      </c>
+      <c r="AK11" s="46">
+        <v>12200</v>
+      </c>
+      <c r="AL11" s="46">
+        <v>18200</v>
+      </c>
+      <c r="AM11" s="46">
+        <v>15000</v>
+      </c>
+      <c r="AN11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="46">
+        <v>20000</v>
+      </c>
+      <c r="AV11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="46">
+        <v>10000</v>
+      </c>
+      <c r="AX11" s="46">
+        <v>12000</v>
+      </c>
+      <c r="AY11" s="46">
+        <v>8000</v>
+      </c>
+      <c r="AZ11" s="46">
+        <v>8000</v>
+      </c>
+      <c r="BA11" s="46">
+        <v>14000</v>
+      </c>
+      <c r="BB11" s="46">
+        <v>18000</v>
+      </c>
+      <c r="BC11" s="46">
+        <v>16000</v>
+      </c>
+      <c r="BD11" s="46">
+        <v>18000</v>
+      </c>
+      <c r="BE11" s="46">
+        <v>16000</v>
+      </c>
+      <c r="BF11" s="46">
+        <v>12500</v>
+      </c>
+      <c r="BG11" s="46">
+        <v>15000</v>
+      </c>
+      <c r="BH11" s="46">
+        <v>18000</v>
+      </c>
+      <c r="BI11" s="46">
+        <v>17000</v>
+      </c>
+      <c r="BJ11" s="46">
+        <v>18000</v>
+      </c>
+      <c r="BK11" s="46">
+        <v>16000</v>
+      </c>
+      <c r="BL11" s="46">
+        <v>16000</v>
+      </c>
+      <c r="BM11" s="46">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0</v>
+      </c>
+      <c r="H12" s="46">
+        <v>0</v>
+      </c>
+      <c r="I12" s="46">
+        <v>0</v>
+      </c>
+      <c r="J12" s="46">
+        <v>0</v>
+      </c>
+      <c r="K12" s="46">
+        <v>0</v>
+      </c>
+      <c r="L12" s="46">
+        <v>0</v>
+      </c>
+      <c r="M12" s="46">
+        <v>0</v>
+      </c>
+      <c r="N12" s="46">
+        <v>0</v>
+      </c>
+      <c r="O12" s="46">
+        <v>0</v>
+      </c>
+      <c r="P12" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>0</v>
+      </c>
+      <c r="R12" s="46">
+        <v>0</v>
+      </c>
+      <c r="S12" s="46">
+        <v>0</v>
+      </c>
+      <c r="T12" s="46">
+        <v>41226</v>
+      </c>
+      <c r="U12" s="46">
+        <v>24000</v>
+      </c>
+      <c r="V12" s="46">
+        <v>48000</v>
+      </c>
+      <c r="W12" s="46">
+        <v>24000</v>
+      </c>
+      <c r="X12" s="46">
+        <v>19603</v>
+      </c>
+      <c r="Y12" s="46">
+        <v>20600</v>
+      </c>
+      <c r="Z12" s="46">
+        <v>51600</v>
+      </c>
+      <c r="AA12" s="46">
+        <v>50000</v>
+      </c>
+      <c r="AB12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="46">
+        <v>56000</v>
+      </c>
+      <c r="AH12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="46">
+        <v>46200</v>
+      </c>
+      <c r="AM12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="46">
+        <v>40000</v>
+      </c>
+      <c r="AV12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+      <c r="BH13" s="39"/>
+      <c r="BI13" s="39"/>
+      <c r="BJ13" s="39"/>
+      <c r="BK13" s="39"/>
+      <c r="BL13" s="39"/>
+      <c r="BM13" s="39"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="39"/>
+      <c r="AN14" s="39"/>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="39"/>
+      <c r="BH14" s="39"/>
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="39"/>
+      <c r="BL14" s="39"/>
+      <c r="BM14" s="39"/>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="47">
+        <f t="shared" ref="B15:BM17" si="1">IFERROR(B4/B10,0)</f>
+        <v>1.1053599999999999</v>
+      </c>
+      <c r="C15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.1022666666666667</v>
+      </c>
+      <c r="D15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.068111111111111</v>
+      </c>
+      <c r="L15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.94777777777777783</v>
+      </c>
+      <c r="M15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.0618888888888889</v>
+      </c>
+      <c r="N15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.1021333333333334</v>
+      </c>
+      <c r="P15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.0666249999999999</v>
+      </c>
+      <c r="R15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.125</v>
+      </c>
+      <c r="S15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.0058823529411764</v>
+      </c>
+      <c r="T15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.88978185993111369</v>
+      </c>
+      <c r="U15" s="47">
+        <f t="shared" si="1"/>
+        <v>2.2488000000000001</v>
+      </c>
+      <c r="V15" s="47">
+        <f t="shared" si="1"/>
+        <v>4.08</v>
+      </c>
+      <c r="W15" s="47">
+        <f t="shared" si="1"/>
+        <v>2.2952307692307694</v>
+      </c>
+      <c r="X15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.0926138538078836</v>
+      </c>
+      <c r="Y15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.88978185993111369</v>
+      </c>
+      <c r="Z15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.95</v>
+      </c>
+      <c r="AA15" s="47">
+        <f t="shared" si="1"/>
+        <v>2.0667</v>
+      </c>
+      <c r="AB15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="47">
+        <f t="shared" si="1"/>
+        <v>2.0266999999999999</v>
+      </c>
+      <c r="AH15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="47">
+        <f t="shared" si="1"/>
+        <v>2.0674000000000001</v>
+      </c>
+      <c r="AV15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BB15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="BC15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.88236292649804782</v>
+      </c>
+      <c r="BD15" s="47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BE15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.209125</v>
+      </c>
+      <c r="BF15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="47">
+        <f t="shared" si="1"/>
+        <v>0.89550503745802124</v>
+      </c>
+      <c r="BI15" s="47">
+        <f t="shared" si="1"/>
+        <v>1.492572658772874</v>
+      </c>
+      <c r="BJ15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM15" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="47">
+        <f t="shared" si="1"/>
+        <v>27.194444444444443</v>
+      </c>
+      <c r="C16" s="47">
+        <f t="shared" si="1"/>
+        <v>10.237055555555555</v>
+      </c>
+      <c r="D16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <f t="shared" si="1"/>
+        <v>23.488185840707963</v>
+      </c>
+      <c r="G16" s="47">
+        <f t="shared" si="1"/>
+        <v>6.8945806451612901</v>
+      </c>
+      <c r="H16" s="47">
+        <f t="shared" si="1"/>
+        <v>12.101771428571428</v>
+      </c>
+      <c r="I16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="47">
+        <f t="shared" si="1"/>
+        <v>11.766666666666667</v>
+      </c>
+      <c r="L16" s="47">
+        <f t="shared" si="1"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="M16" s="47">
+        <f t="shared" si="1"/>
+        <v>9.8133333333333326</v>
+      </c>
+      <c r="N16" s="47">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="O16" s="47">
+        <f t="shared" si="1"/>
+        <v>13.220857142857144</v>
+      </c>
+      <c r="P16" s="47">
+        <f t="shared" si="1"/>
+        <v>3.7538345864661653</v>
+      </c>
+      <c r="Q16" s="47">
+        <f t="shared" si="1"/>
+        <v>11.242611111111112</v>
+      </c>
+      <c r="R16" s="47">
+        <f t="shared" si="1"/>
+        <v>8.3602857142857143</v>
+      </c>
+      <c r="S16" s="47">
+        <f t="shared" si="1"/>
+        <v>9.0542857142857152</v>
+      </c>
+      <c r="T16" s="48">
+        <f t="shared" si="1"/>
+        <v>24.656190476190478</v>
+      </c>
+      <c r="U16" s="47">
+        <f t="shared" si="1"/>
+        <v>83.50028571428571</v>
+      </c>
+      <c r="V16" s="47">
+        <f t="shared" si="1"/>
+        <v>16.274136363636362</v>
+      </c>
+      <c r="W16" s="47">
+        <f t="shared" si="1"/>
+        <v>72.683714285714288</v>
+      </c>
+      <c r="X16" s="47">
+        <f t="shared" si="1"/>
+        <v>20.051681818181819</v>
+      </c>
+      <c r="Y16" s="47">
+        <f t="shared" si="1"/>
+        <v>26.36990909090909</v>
+      </c>
+      <c r="Z16" s="47">
+        <f t="shared" si="1"/>
+        <v>57.652358974358975</v>
+      </c>
+      <c r="AA16" s="47">
+        <f t="shared" si="1"/>
+        <v>31.955850000000002</v>
+      </c>
+      <c r="AB16" s="47">
+        <f t="shared" si="1"/>
+        <v>8.7777777777777786</v>
+      </c>
+      <c r="AC16" s="47">
+        <f t="shared" si="1"/>
+        <v>4.5506206896551724</v>
+      </c>
+      <c r="AD16" s="47">
+        <f t="shared" si="1"/>
+        <v>5.6778333333333331</v>
+      </c>
+      <c r="AE16" s="47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AF16" s="47">
+        <f t="shared" si="1"/>
+        <v>4.1916666666666664</v>
+      </c>
+      <c r="AG16" s="47">
+        <f t="shared" si="1"/>
+        <v>29.52205</v>
+      </c>
+      <c r="AH16" s="47">
+        <f t="shared" si="1"/>
+        <v>3.1972307692307691</v>
+      </c>
+      <c r="AI16" s="47">
+        <f t="shared" si="1"/>
+        <v>5.1034482758620694</v>
+      </c>
+      <c r="AJ16" s="47">
+        <f t="shared" si="1"/>
+        <v>11.2464</v>
+      </c>
+      <c r="AK16" s="47">
+        <f t="shared" si="1"/>
+        <v>14.432950819672131</v>
+      </c>
+      <c r="AL16" s="47">
+        <f t="shared" si="1"/>
+        <v>34.050879120879124</v>
+      </c>
+      <c r="AM16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="47">
+        <f t="shared" si="1"/>
+        <v>42.601599999999998</v>
+      </c>
+      <c r="AV16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="47">
+        <f t="shared" si="1"/>
+        <v>4.8833000000000002</v>
+      </c>
+      <c r="AX16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA16" s="47">
+        <f t="shared" si="1"/>
+        <v>7.860214285714286</v>
+      </c>
+      <c r="BB16" s="47">
+        <f t="shared" si="1"/>
+        <v>10.777777777777779</v>
+      </c>
+      <c r="BC16" s="47">
+        <f t="shared" si="1"/>
+        <v>6.8145625000000001</v>
+      </c>
+      <c r="BD16" s="47">
+        <f t="shared" si="1"/>
+        <v>7.4073888888888888</v>
+      </c>
+      <c r="BE16" s="47">
+        <f t="shared" si="1"/>
+        <v>7.4000624999999998</v>
+      </c>
+      <c r="BF16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="47">
+        <f t="shared" si="1"/>
+        <v>3.1821999999999999</v>
+      </c>
+      <c r="BH16" s="47">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="BI16" s="47">
+        <f t="shared" si="1"/>
+        <v>7.0402352941176467</v>
+      </c>
+      <c r="BJ16" s="47">
+        <f t="shared" si="1"/>
+        <v>6.809277777777778</v>
+      </c>
+      <c r="BK16" s="47">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="BL16" s="47">
+        <f t="shared" si="1"/>
+        <v>4.2520625000000001</v>
+      </c>
+      <c r="BM16" s="47">
+        <f t="shared" si="1"/>
+        <v>6.2916875000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="47">
+        <f>IFERROR(#REF!/K12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="47">
+        <f>IFERROR(K6/L12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="47">
+        <f t="shared" si="1"/>
+        <v>0.6306699655557173</v>
+      </c>
+      <c r="U17" s="47">
+        <f t="shared" si="1"/>
+        <v>6.3764166666666666</v>
+      </c>
+      <c r="V17" s="47">
+        <f t="shared" si="1"/>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="W17" s="47">
+        <f t="shared" si="1"/>
+        <v>2.3722083333333335</v>
+      </c>
+      <c r="X17" s="47">
+        <f t="shared" si="1"/>
+        <v>3.3464265673621383</v>
+      </c>
+      <c r="Y17" s="47">
+        <f t="shared" si="1"/>
+        <v>3.8292718446601941</v>
+      </c>
+      <c r="Z17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="47">
+        <f t="shared" si="1"/>
+        <v>1.48</v>
+      </c>
+      <c r="AB17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="47">
+        <f t="shared" si="1"/>
+        <v>24.879464285714285</v>
+      </c>
+      <c r="AH17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="47">
+        <f t="shared" si="1"/>
+        <v>2.8181818181818179</v>
+      </c>
+      <c r="AV17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
+      <c r="BL18" s="39"/>
+      <c r="BM18" s="39"/>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
+      <c r="BK19" s="39"/>
+      <c r="BL19" s="39"/>
+      <c r="BM19" s="39"/>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="46">
+        <v>0</v>
+      </c>
+      <c r="C20" s="46">
+        <v>1</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <v>1</v>
+      </c>
+      <c r="H20" s="46">
+        <v>1</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <v>0</v>
+      </c>
+      <c r="K20" s="46">
+        <v>1</v>
+      </c>
+      <c r="L20" s="46">
+        <v>1</v>
+      </c>
+      <c r="M20" s="46">
+        <v>1</v>
+      </c>
+      <c r="N20" s="46">
+        <v>0</v>
+      </c>
+      <c r="O20" s="46">
+        <v>1</v>
+      </c>
+      <c r="P20" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <v>1</v>
+      </c>
+      <c r="S20" s="46">
+        <v>1</v>
+      </c>
+      <c r="T20" s="46">
+        <v>2</v>
+      </c>
+      <c r="U20" s="46">
+        <v>1</v>
+      </c>
+      <c r="V20" s="46">
+        <v>7</v>
+      </c>
+      <c r="W20" s="46">
+        <v>1</v>
+      </c>
+      <c r="X20" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="46">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="46">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="46">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="46">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="46">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="46">
+        <v>3</v>
+      </c>
+      <c r="AT20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="46">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="46">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="46">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="46">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="46">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="46">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="46">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="46">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="46">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="46">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="46">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="46">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="46">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="46">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="46">
+        <v>30</v>
+      </c>
+      <c r="C21" s="46">
+        <v>10</v>
+      </c>
+      <c r="D21" s="46">
+        <v>0</v>
+      </c>
+      <c r="E21" s="46">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <v>23</v>
+      </c>
+      <c r="G21" s="46">
+        <v>7</v>
+      </c>
+      <c r="H21" s="46">
+        <v>12</v>
+      </c>
+      <c r="I21" s="46">
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <v>2</v>
+      </c>
+      <c r="K21" s="46">
+        <v>13</v>
+      </c>
+      <c r="L21" s="46">
+        <v>10</v>
+      </c>
+      <c r="M21" s="46">
+        <v>10</v>
+      </c>
+      <c r="N21" s="46">
+        <v>13</v>
+      </c>
+      <c r="O21" s="46">
+        <v>13</v>
+      </c>
+      <c r="P21" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="46">
+        <v>12</v>
+      </c>
+      <c r="R21" s="46">
+        <v>8</v>
+      </c>
+      <c r="S21" s="46">
+        <v>10</v>
+      </c>
+      <c r="T21" s="46">
+        <v>62</v>
+      </c>
+      <c r="U21" s="46">
+        <v>80</v>
+      </c>
+      <c r="V21" s="46">
+        <v>62</v>
+      </c>
+      <c r="W21" s="46">
+        <v>15</v>
+      </c>
+      <c r="X21" s="46">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="46">
+        <v>52</v>
+      </c>
+      <c r="Z21" s="46">
+        <v>30</v>
+      </c>
+      <c r="AA21" s="46">
+        <v>33</v>
+      </c>
+      <c r="AB21" s="46">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="46">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="46">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="46">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="46">
+        <v>3</v>
+      </c>
+      <c r="AG21" s="46">
+        <v>30</v>
+      </c>
+      <c r="AH21" s="46">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="46">
+        <v>5</v>
+      </c>
+      <c r="AJ21" s="46">
+        <v>11</v>
+      </c>
+      <c r="AK21" s="46">
+        <v>7</v>
+      </c>
+      <c r="AL21" s="46">
+        <v>33</v>
+      </c>
+      <c r="AM21" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="46">
+        <v>7</v>
+      </c>
+      <c r="AO21" s="46">
+        <v>5</v>
+      </c>
+      <c r="AP21" s="46">
+        <v>5</v>
+      </c>
+      <c r="AQ21" s="46">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="46">
+        <v>45</v>
+      </c>
+      <c r="AT21" s="46">
+        <v>10</v>
+      </c>
+      <c r="AU21" s="46">
+        <v>43</v>
+      </c>
+      <c r="AV21" s="46">
+        <v>4</v>
+      </c>
+      <c r="AW21" s="46">
+        <v>4</v>
+      </c>
+      <c r="AX21" s="46">
+        <v>8</v>
+      </c>
+      <c r="AY21" s="46">
+        <v>10</v>
+      </c>
+      <c r="AZ21" s="46">
+        <v>7</v>
+      </c>
+      <c r="BA21" s="46">
+        <v>6</v>
+      </c>
+      <c r="BB21" s="46">
+        <v>11</v>
+      </c>
+      <c r="BC21" s="46">
+        <v>5</v>
+      </c>
+      <c r="BD21" s="46">
+        <v>3</v>
+      </c>
+      <c r="BE21" s="46">
+        <v>7</v>
+      </c>
+      <c r="BF21" s="46">
+        <v>5</v>
+      </c>
+      <c r="BG21" s="46">
+        <v>7</v>
+      </c>
+      <c r="BH21" s="46">
+        <v>9</v>
+      </c>
+      <c r="BI21" s="46">
+        <v>7</v>
+      </c>
+      <c r="BJ21" s="46">
+        <v>7</v>
+      </c>
+      <c r="BK21" s="46">
+        <v>5</v>
+      </c>
+      <c r="BL21" s="46">
+        <v>5</v>
+      </c>
+      <c r="BM21" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="46">
+        <v>0</v>
+      </c>
+      <c r="C22" s="46">
+        <v>0</v>
+      </c>
+      <c r="D22" s="46">
+        <v>0</v>
+      </c>
+      <c r="E22" s="46">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46">
+        <v>0</v>
+      </c>
+      <c r="G22" s="46">
+        <v>0</v>
+      </c>
+      <c r="H22" s="46">
+        <v>0</v>
+      </c>
+      <c r="I22" s="46">
+        <v>0</v>
+      </c>
+      <c r="J22" s="46">
+        <v>0</v>
+      </c>
+      <c r="K22" s="46">
+        <v>0</v>
+      </c>
+      <c r="L22" s="46">
+        <v>0</v>
+      </c>
+      <c r="M22" s="46">
+        <v>0</v>
+      </c>
+      <c r="N22" s="46">
+        <v>0</v>
+      </c>
+      <c r="O22" s="46">
+        <v>0</v>
+      </c>
+      <c r="P22" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="46">
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <v>0</v>
+      </c>
+      <c r="S22" s="46">
+        <v>1</v>
+      </c>
+      <c r="T22" s="46">
+        <v>4</v>
+      </c>
+      <c r="U22" s="46">
+        <v>1</v>
+      </c>
+      <c r="V22" s="46">
+        <v>0</v>
+      </c>
+      <c r="W22" s="46">
+        <v>1</v>
+      </c>
+      <c r="X22" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="46">
+        <v>7</v>
+      </c>
+      <c r="AK22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="46">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="46">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>